--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H100_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4969512195121951</v>
+        <v>0.4725609756097561</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.171622417227265</v>
+        <v>0.1424860355220313</v>
       </c>
       <c r="J2" t="n">
-        <v>2231.750176757585</v>
+        <v>1903.695259780173</v>
       </c>
       <c r="K2" t="n">
-        <v>6322468.147125223</v>
+        <v>4951598.038178968</v>
       </c>
       <c r="L2" t="n">
-        <v>2514.45185818405</v>
+        <v>2225.218649521653</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1926757782619892</v>
+        <v>0.06592632712417945</v>
       </c>
     </row>
   </sheetData>
